--- a/va_facility_data_2025-02-20/Carbondale VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carbondale%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Carbondale VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carbondale%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R01e2c1e011d24de987a2153bdeaf1319"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1249e29e08f649ccbc294ebeb88c4684"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4380d77fa23141c69390b0c93977118e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R942a2d3a80e14c418440e14b62de0a9e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1637eb3de6c54d289e5a8dfc9e7945ff"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5574ba7511ae4dcb8487c0b74b4b82d3"/>
   </x:sheets>
 </x:workbook>
 </file>
